--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/falcon.x.attachment.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/falcon.x.attachment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079C01D2-6B51-A946-AA2C-FA8787D1A8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D07151-F111-FE4C-ACEC-CA77D442C3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67720" yWindow="-9820" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="60420" yWindow="-680" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>active</t>
   </si>
@@ -188,6 +188,20 @@
   </si>
   <si>
     <t>b4dc2aca-875c-4714-b06b-ef8b6ad481e4</t>
+  </si>
+  <si>
+    <t>979ab118-e232-4595-a9cb-20b68e775fd7</t>
+  </si>
+  <si>
+    <t>be0f8b9b-bff1-4d38-af64-02efbb17a390</t>
+  </si>
+  <si>
+    <t>读取目录文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -718,7 +732,7 @@
   <dimension ref="A3:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -876,6 +890,28 @@
         <v>41</v>
       </c>
     </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>3</v>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/falcon.x.attachment.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/falcon.x.attachment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D07151-F111-FE4C-ACEC-CA77D442C3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182D9650-346C-584E-9043-58BC631AD07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60420" yWindow="-680" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="60420" yWindow="-8900" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>active</t>
   </si>
@@ -188,20 +188,6 @@
   </si>
   <si>
     <t>b4dc2aca-875c-4714-b06b-ef8b6ad481e4</t>
-  </si>
-  <si>
-    <t>979ab118-e232-4595-a9cb-20b68e775fd7</t>
-  </si>
-  <si>
-    <t>be0f8b9b-bff1-4d38-af64-02efbb17a390</t>
-  </si>
-  <si>
-    <t>读取目录文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -729,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:K23"/>
+  <dimension ref="A3:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A17" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -890,120 +876,98 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>55</v>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="5" t="s">
+      <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C19:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/falcon.x.attachment.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/falcon.x.attachment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182D9650-346C-584E-9043-58BC631AD07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B8AC31-E55D-154B-9F06-DF4FCD480E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60420" yWindow="-8900" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="43680" yWindow="-10500" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>active</t>
   </si>
@@ -148,18 +148,6 @@
     <t>附件导入/导出</t>
   </si>
   <si>
-    <t>上传</t>
-  </si>
-  <si>
-    <t>下载</t>
-  </si>
-  <si>
-    <t>我的文件</t>
-  </si>
-  <si>
-    <t>读取文件</t>
-  </si>
-  <si>
     <t>48971c00-b21e-4304-a59b-cb988864072c</t>
   </si>
   <si>
@@ -176,18 +164,6 @@
   </si>
   <si>
     <t>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</t>
-  </si>
-  <si>
-    <t>4b398ad8-0d8c-4dab-8954-85130b86d973</t>
-  </si>
-  <si>
-    <t>7240209a-22d8-4ce5-a8a3-108c177354d9</t>
-  </si>
-  <si>
-    <t>e24e1d5f-297e-4f9e-9eb7-d67a9f7f5174</t>
-  </si>
-  <si>
-    <t>b4dc2aca-875c-4714-b06b-ef8b6ad481e4</t>
   </si>
 </sst>
 </file>
@@ -715,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:K21"/>
+  <dimension ref="A3:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A16:XFD17"/>
+      <selection activeCell="A15" sqref="A12:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -737,7 +713,7 @@
     <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,7 +724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -757,7 +733,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -766,208 +742,164 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="4" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K16" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="5" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C15:K15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
